--- a/LookupFiles/Regions_mz.xlsx
+++ b/LookupFiles/Regions_mz.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="12740"/>
+    <workbookView xWindow="1956" yWindow="1956" windowWidth="21600" windowHeight="12744"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="54">
   <si>
     <t>01</t>
   </si>
@@ -136,18 +136,12 @@
     <t>Urban_rural</t>
   </si>
   <si>
-    <t>016</t>
-  </si>
-  <si>
     <t>030</t>
   </si>
   <si>
     <t>013</t>
   </si>
   <si>
-    <t>003</t>
-  </si>
-  <si>
     <t>031</t>
   </si>
   <si>
@@ -178,22 +172,25 @@
     <t>Licilo</t>
   </si>
   <si>
-    <t>Banhine</t>
-  </si>
-  <si>
-    <t>Mazucane</t>
-  </si>
-  <si>
-    <t>Chicavane</t>
-  </si>
-  <si>
-    <t>Mangundze</t>
-  </si>
-  <si>
     <t>063</t>
   </si>
   <si>
     <t>080</t>
+  </si>
+  <si>
+    <t>Chongoene-Sede</t>
+  </si>
+  <si>
+    <t>Siaia</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>042</t>
   </si>
 </sst>
 </file>
@@ -600,26 +597,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="24.26953125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="24.26953125" style="5" customWidth="1"/>
-    <col min="11" max="12" width="9.1796875" style="6"/>
-    <col min="13" max="13" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="24.21875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="24.21875" style="5" customWidth="1"/>
+    <col min="11" max="12" width="9.21875" style="6"/>
+    <col min="13" max="13" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -660,7 +657,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -692,16 +689,16 @@
         <v>13</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -730,19 +727,19 @@
         <v>4</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -771,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -815,16 +812,16 @@
         <v>15</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -856,16 +853,16 @@
         <v>3</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M6" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -888,7 +885,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>2</v>
@@ -897,16 +894,16 @@
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M7" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -929,7 +926,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>2</v>
@@ -938,16 +935,16 @@
         <v>3</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -979,16 +976,16 @@
         <v>3</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M9" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1011,7 +1008,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>2</v>
@@ -1020,16 +1017,16 @@
         <v>3</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M10" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1061,20 +1058,20 @@
         <v>3</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="M11" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1090,7 +1087,7 @@
         <v>20</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>49</v>
@@ -1102,20 +1099,20 @@
         <v>3</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="M12" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1125,16 +1122,16 @@
         <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>2</v>
@@ -1143,20 +1140,20 @@
         <v>3</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="M13" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1166,17 +1163,17 @@
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="I14" s="10" t="s">
         <v>2</v>
       </c>
@@ -1184,10 +1181,10 @@
         <v>3</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="M14" s="2">
         <v>2</v>

--- a/LookupFiles/Regions_mz.xlsx
+++ b/LookupFiles/Regions_mz.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$K$2:$L$286</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="701">
   <si>
     <t>01</t>
   </si>
@@ -2126,6 +2126,12 @@
   </si>
   <si>
     <t>096</t>
+  </si>
+  <si>
+    <t>Cabo delgado</t>
+  </si>
+  <si>
+    <t>099</t>
   </si>
 </sst>
 </file>
@@ -2133,7 +2139,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -2158,12 +2164,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2192,9 +2204,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2233,6 +2245,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2543,10 +2565,10 @@
   <dimension ref="A1:M286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3877,43 +3899,43 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="E33" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="17" t="s">
         <v>682</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3" t="s">
+      <c r="G33" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="17" t="s">
         <v>683</v>
       </c>
-      <c r="I33" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="I33" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="L33" s="18" t="s">
         <v>613</v>
       </c>
-      <c r="L33" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="M33" s="2">
+      <c r="M33" s="18">
         <v>2</v>
       </c>
     </row>
@@ -4086,7 +4108,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>71</v>
+        <v>699</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>37</v>

--- a/LookupFiles/Regions_mz.xlsx
+++ b/LookupFiles/Regions_mz.xlsx
@@ -15,7 +15,7 @@
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$K$2:$L$286</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$N$286</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3434" uniqueCount="701">
   <si>
     <t>01</t>
   </si>
@@ -2164,7 +2164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2174,6 +2174,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2206,7 +2218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2255,6 +2267,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2562,13 +2595,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M286"/>
+  <dimension ref="A1:N286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33:M33"/>
+      <selection pane="bottomRight" activeCell="N175" sqref="N175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5866,7 +5899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>12</v>
       </c>
@@ -5907,7 +5940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
@@ -5948,7 +5981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>12</v>
       </c>
@@ -5988,49 +6021,52 @@
       <c r="M83" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B84" s="3" t="s">
+      <c r="N83" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F84" s="3" t="s">
+      <c r="E84" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H84" s="3" t="s">
+      <c r="G84" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H84" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="I84" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="M84" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I84" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J84" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K84" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="L84" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="M84" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>12</v>
       </c>
@@ -6071,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:13" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -6112,7 +6148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:13" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
@@ -6153,7 +6189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:13" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -6194,7 +6230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>20</v>
       </c>
@@ -6235,7 +6271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>20</v>
       </c>
@@ -6276,7 +6312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>20</v>
       </c>
@@ -6317,7 +6353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>20</v>
       </c>
@@ -6358,7 +6394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>20</v>
       </c>
@@ -6399,7 +6435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>20</v>
       </c>
@@ -6440,7 +6476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>20</v>
       </c>
@@ -6481,7 +6517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>20</v>
       </c>
@@ -9393,43 +9429,43 @@
       </c>
     </row>
     <row r="167" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D167" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F167" s="3" t="s">
+      <c r="E167" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="G167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H167" s="3" t="s">
+      <c r="G167" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H167" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="I167" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J167" s="3" t="s">
+      <c r="I167" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J167" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="K167" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="L167" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="M167" s="2">
+      <c r="K167" s="27" t="s">
+        <v>607</v>
+      </c>
+      <c r="L167" s="27" t="s">
+        <v>607</v>
+      </c>
+      <c r="M167" s="27">
         <v>2</v>
       </c>
     </row>
@@ -9680,43 +9716,43 @@
       </c>
     </row>
     <row r="174" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D174" s="3" t="s">
+      <c r="C174" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D174" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F174" s="3" t="s">
+      <c r="E174" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F174" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="G174" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H174" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I174" s="13" t="s">
+      <c r="G174" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H174" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I174" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J174" s="3" t="s">
+      <c r="J174" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="K174" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="L174" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="M174" s="2">
+      <c r="K174" s="27" t="s">
+        <v>636</v>
+      </c>
+      <c r="L174" s="27" t="s">
+        <v>636</v>
+      </c>
+      <c r="M174" s="27">
         <v>1</v>
       </c>
     </row>
